--- a/documents/testcase.xlsx
+++ b/documents/testcase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinanceApp\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinanceApp - Project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C873EB3-F02D-483F-9D63-300C546821A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42EC67A-14AD-4F0C-A9F1-F390EA292D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12492" yWindow="0" windowWidth="10644" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
